--- a/refs/heads/master/ValueSet-VSServicioRequerido.xlsx
+++ b/refs/heads/master/ValueSet-VSServicioRequerido.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/refs/heads/master/ValueSet-VSServicioRequerido.xlsx
+++ b/refs/heads/master/ValueSet-VSServicioRequerido.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Corresponde al servicio que se requiere</t>
+    <t>Servicio Requerido</t>
   </si>
   <si>
     <t>Status</t>

--- a/refs/heads/master/ValueSet-VSServicioRequerido.xlsx
+++ b/refs/heads/master/ValueSet-VSServicioRequerido.xlsx
@@ -104,10 +104,10 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>3457005</t>
-  </si>
-  <si>
-    <t>derivación del paciente (procedimiento)</t>
+    <t>103696004</t>
+  </si>
+  <si>
+    <t>derivación del paciente a un especialista (procedimiento)</t>
   </si>
   <si>
     <t/>

--- a/refs/heads/master/ValueSet-VSServicioRequerido.xlsx
+++ b/refs/heads/master/ValueSet-VSServicioRequerido.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/refs/heads/master/ValueSet-VSServicioRequerido.xlsx
+++ b/refs/heads/master/ValueSet-VSServicioRequerido.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/refs/heads/master/ValueSet-VSServicioRequerido.xlsx
+++ b/refs/heads/master/ValueSet-VSServicioRequerido.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/refs/heads/master/ValueSet-VSServicioRequerido.xlsx
+++ b/refs/heads/master/ValueSet-VSServicioRequerido.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
